--- a/tests/data/parsers/tabular/Test.xlsx
+++ b/tests/data/parsers/tabular/Test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26216"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0796B8ED-8B16-4403-9C15-51DE9B2E6122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D112209-2919-4A61-89D9-5D67337846F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_1" sheetId="1" r:id="rId1"/>
     <sheet name="sheet_2" sheetId="6" r:id="rId2"/>
+    <sheet name="sheet_3" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>########## start Header ##########</t>
   </si>
@@ -53,6 +54,36 @@
   </si>
   <si>
     <t>column_3</t>
+  </si>
+  <si>
+    <t>quantity_1</t>
+  </si>
+  <si>
+    <t>quantity_2</t>
+  </si>
+  <si>
+    <t>q1_d0_r0</t>
+  </si>
+  <si>
+    <t>q1_d1_r0</t>
+  </si>
+  <si>
+    <t>q2_d0_r0</t>
+  </si>
+  <si>
+    <t>q2_d1_r0</t>
+  </si>
+  <si>
+    <t>q1_d0_r1</t>
+  </si>
+  <si>
+    <t>q1_d1_r1</t>
+  </si>
+  <si>
+    <t>q2_d0_r1</t>
+  </si>
+  <si>
+    <t>q2_d1_r1</t>
   </si>
 </sst>
 </file>
@@ -60,9 +91,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -114,16 +145,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -513,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="14.25"/>
@@ -868,4 +899,64 @@
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E552DF16-3577-4598-B888-A82F40109090}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/data/parsers/tabular/Test.xlsx
+++ b/tests/data/parsers/tabular/Test.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D112209-2919-4A61-89D9-5D67337846F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A1BCC8C-AD4D-4BB9-BA7B-75883EBA4C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_1" sheetId="1" r:id="rId1"/>
     <sheet name="sheet_2" sheetId="6" r:id="rId2"/>
     <sheet name="sheet_3" sheetId="7" r:id="rId3"/>
+    <sheet name="sheet_4" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>########## start Header ##########</t>
   </si>
@@ -84,6 +85,63 @@
   </si>
   <si>
     <t>q2_d1_r1</t>
+  </si>
+  <si>
+    <t># comments</t>
+  </si>
+  <si>
+    <t>Header 1</t>
+  </si>
+  <si>
+    <t>Header 2</t>
+  </si>
+  <si>
+    <t>Header 3</t>
+  </si>
+  <si>
+    <t>Header 4</t>
+  </si>
+  <si>
+    <t>Header 5</t>
+  </si>
+  <si>
+    <t>Header 6</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>my_str1</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>my_str2</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>my_str3</t>
+  </si>
+  <si>
+    <t>test13</t>
   </si>
 </sst>
 </file>
@@ -95,7 +153,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -110,6 +168,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
@@ -134,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -160,6 +224,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,7 +970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E552DF16-3577-4598-B888-A82F40109090}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -959,4 +1024,165 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14275015-9F09-4E8F-92B9-A94522E02BE8}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="9">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="9">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9">
+        <v>13</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/data/parsers/tabular/Test.xlsx
+++ b/tests/data/parsers/tabular/Test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A1BCC8C-AD4D-4BB9-BA7B-75883EBA4C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9841FDF2-9349-4CEF-A474-8DBBF44FEBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_1" sheetId="1" r:id="rId1"/>
